--- a/IPC.xlsx
+++ b/IPC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BF432F-5821-7948-83AA-8DCB519DACFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A80525-6548-5C48-AF57-13AF3D6D1811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="3380" windowWidth="22320" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD65"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/IPC.xlsx
+++ b/IPC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A80525-6548-5C48-AF57-13AF3D6D1811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10049FF6-8343-1742-B99F-D33F6EBF52D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="3380" windowWidth="22320" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Año(aaaa)-Mes(mm)</t>
   </si>
@@ -42,16 +42,157 @@
   </si>
   <si>
     <t>Inflación año corrido %</t>
+  </si>
+  <si>
+    <t>Enero 2020</t>
+  </si>
+  <si>
+    <t>Febrero 2020</t>
+  </si>
+  <si>
+    <t>Marzo 2020</t>
+  </si>
+  <si>
+    <t>Enero 2021</t>
+  </si>
+  <si>
+    <t>Marzo 2021</t>
+  </si>
+  <si>
+    <t>Abril 2020</t>
+  </si>
+  <si>
+    <t>Mayo 2020</t>
+  </si>
+  <si>
+    <t>Junio 2020</t>
+  </si>
+  <si>
+    <t>Julio 2020</t>
+  </si>
+  <si>
+    <t>Agosto 2020</t>
+  </si>
+  <si>
+    <t>Septiembre 2020</t>
+  </si>
+  <si>
+    <t>Octubre 2020</t>
+  </si>
+  <si>
+    <t>Noviembre 2020</t>
+  </si>
+  <si>
+    <t>Diciembre 2020</t>
+  </si>
+  <si>
+    <t>Febrero 2021</t>
+  </si>
+  <si>
+    <t>Enero 2022</t>
+  </si>
+  <si>
+    <t>Abril 2021</t>
+  </si>
+  <si>
+    <t>Mayo 2021</t>
+  </si>
+  <si>
+    <t>Junio 2021</t>
+  </si>
+  <si>
+    <t>Julio 2021</t>
+  </si>
+  <si>
+    <t>Agosto 2021</t>
+  </si>
+  <si>
+    <t>Septiembre 2021</t>
+  </si>
+  <si>
+    <t>Octubre 2021</t>
+  </si>
+  <si>
+    <t>Noviembre 2021</t>
+  </si>
+  <si>
+    <t>Diciembre 2021</t>
+  </si>
+  <si>
+    <t>Febrero 2022</t>
+  </si>
+  <si>
+    <t>Marzo 2022</t>
+  </si>
+  <si>
+    <t>Abril 2022</t>
+  </si>
+  <si>
+    <t>Mayo 2022</t>
+  </si>
+  <si>
+    <t>Junio 2022</t>
+  </si>
+  <si>
+    <t>Julio 2022</t>
+  </si>
+  <si>
+    <t>Agosto 2022</t>
+  </si>
+  <si>
+    <t>Septiembre 2022</t>
+  </si>
+  <si>
+    <t>Octubre 2022</t>
+  </si>
+  <si>
+    <t>Noviembre 2022</t>
+  </si>
+  <si>
+    <t>Diciembre 2022</t>
+  </si>
+  <si>
+    <t>Enero 2023</t>
+  </si>
+  <si>
+    <t>Febrero 2023</t>
+  </si>
+  <si>
+    <t>Marzo 2023</t>
+  </si>
+  <si>
+    <t>Abril 2023</t>
+  </si>
+  <si>
+    <t>Mayo 2023</t>
+  </si>
+  <si>
+    <t>Junio 2023</t>
+  </si>
+  <si>
+    <t>Julio 2023</t>
+  </si>
+  <si>
+    <t>Agosto 2023</t>
+  </si>
+  <si>
+    <t>Septiembre 2023</t>
+  </si>
+  <si>
+    <t>Octubre 2023</t>
+  </si>
+  <si>
+    <t>Noviembre 2023</t>
+  </si>
+  <si>
+    <t>Diciembre 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="####\-##"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +209,11 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -159,23 +305,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="134" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -515,958 +661,959 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>202001</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
         <v>104.24</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>3.62</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>0.42</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>0.42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>202002</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7">
         <v>104.94</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>3.72</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>0.67</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>202003</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
         <v>105.53</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>3.86</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>1.67</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>202004</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
         <v>105.7</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>3.51</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>0.16</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>1.83</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>202005</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5">
         <v>105.36</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>2.85</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>-0.32</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>202006</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7">
         <v>104.97</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>2.19</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>-0.38</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>202007</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5">
         <v>104.97</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>1.97</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>202008</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
         <v>104.96</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>1.88</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>-0.01</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>202009</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="A10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5">
         <v>105.29</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>1.97</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>0.32</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>1.44</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>202010</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="A11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7">
         <v>105.23</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>1.75</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>-0.06</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>1.38</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>202011</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5">
         <v>105.08</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>1.49</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>-0.15</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>1.23</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>202012</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="A13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7">
         <v>105.48</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>1.61</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>0.38</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>1.61</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>202101</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="A14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5">
         <v>105.91</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>1.6</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>0.41</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>0.41</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>202102</v>
-      </c>
-      <c r="B15" s="9">
+      <c r="A15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7">
         <v>106.58</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>1.56</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <v>0.64</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>1.05</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>202103</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="A16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5">
         <v>107.12</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>1.51</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>0.51</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>1.56</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>202104</v>
-      </c>
-      <c r="B17" s="9">
+      <c r="A17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7">
         <v>107.76</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>1.95</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <v>0.59</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <v>2.16</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>202105</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="A18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="5">
         <v>108.84</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>3.3</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>1</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>3.18</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>202106</v>
-      </c>
-      <c r="B19" s="9">
+      <c r="A19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7">
         <v>108.78</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <v>3.63</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <v>-0.05</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="8">
         <v>3.13</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>202107</v>
-      </c>
-      <c r="B20" s="6">
+      <c r="A20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="5">
         <v>109.14</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>3.97</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>0.32</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>3.47</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>202108</v>
-      </c>
-      <c r="B21" s="9">
+      <c r="A21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="7">
         <v>109.62</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>4.4400000000000004</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>0.45</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="8">
         <v>3.93</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>202109</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="5">
         <v>110.04</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>4.51</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>0.38</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>4.33</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>202110</v>
-      </c>
-      <c r="B23" s="9">
+      <c r="A23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="7">
         <v>110.06</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="7">
         <v>4.58</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="7">
         <v>0.01</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="8">
         <v>4.34</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>202111</v>
-      </c>
-      <c r="B24" s="6">
+      <c r="A24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="5">
         <v>110.6</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>5.26</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>0.5</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>4.8600000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>202112</v>
-      </c>
-      <c r="B25" s="9">
+      <c r="A25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="7">
         <v>111.41</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="7">
         <v>5.62</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="7">
         <v>0.73</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="8">
         <v>5.62</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>202201</v>
-      </c>
-      <c r="B26" s="6">
+      <c r="A26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="5">
         <v>113.26</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>6.94</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>1.67</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>1.67</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>202202</v>
-      </c>
-      <c r="B27" s="9">
+      <c r="A27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="7">
         <v>115.11</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="7">
         <v>8.01</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="7">
         <v>1.63</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <v>3.33</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>202203</v>
-      </c>
-      <c r="B28" s="6">
+      <c r="A28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="5">
         <v>116.26</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>8.5299999999999994</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>1</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <v>202204</v>
-      </c>
-      <c r="B29" s="9">
+      <c r="A29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="7">
         <v>117.71</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="7">
         <v>9.23</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="7">
         <v>1.25</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="8">
         <v>5.66</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>202205</v>
-      </c>
-      <c r="B30" s="6">
+      <c r="A30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="5">
         <v>118.7</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>9.07</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>0.84</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>6.55</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
-        <v>202206</v>
-      </c>
-      <c r="B31" s="9">
+      <c r="A31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="7">
         <v>119.31</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="7">
         <v>9.67</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="7">
         <v>0.51</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="8">
         <v>7.09</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <v>202207</v>
-      </c>
-      <c r="B32" s="6">
+      <c r="A32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="5">
         <v>120.27</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>10.210000000000001</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>0.81</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>7.96</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <v>202208</v>
-      </c>
-      <c r="B33" s="9">
+      <c r="A33" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="7">
         <v>121.5</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="7">
         <v>10.84</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="7">
         <v>1.02</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="8">
         <v>9.06</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
-        <v>202209</v>
-      </c>
-      <c r="B34" s="6">
+      <c r="A34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="5">
         <v>122.63</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>11.44</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>0.93</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <v>10.08</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
-        <v>202210</v>
-      </c>
-      <c r="B35" s="9">
+      <c r="A35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="7">
         <v>123.51</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="7">
         <v>12.22</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="7">
         <v>0.72</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="8">
         <v>10.86</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
-        <v>202211</v>
-      </c>
-      <c r="B36" s="6">
+      <c r="A36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="5">
         <v>124.46</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>12.53</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>0.77</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>11.72</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
-        <v>202212</v>
-      </c>
-      <c r="B37" s="9">
+      <c r="A37" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="7">
         <v>126.03</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="7">
         <v>13.12</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="7">
         <v>1.26</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="8">
         <v>13.12</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
-        <v>202301</v>
-      </c>
-      <c r="B38" s="6">
+      <c r="A38" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="5">
         <v>128.27000000000001</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>13.25</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>1.78</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>1.78</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
-        <v>202302</v>
-      </c>
-      <c r="B39" s="9">
+      <c r="A39" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="7">
         <v>130.4</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="7">
         <v>13.28</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="7">
         <v>1.66</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="8">
         <v>3.47</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
-        <v>202303</v>
-      </c>
-      <c r="B40" s="6">
+      <c r="A40" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="5">
         <v>131.77000000000001</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>13.34</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>1.05</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
-        <v>202304</v>
-      </c>
-      <c r="B41" s="9">
+      <c r="A41" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="7">
         <v>132.80000000000001</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="7">
         <v>12.82</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="7">
         <v>0.78</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="8">
         <v>5.38</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <v>202305</v>
-      </c>
-      <c r="B42" s="6">
+      <c r="A42" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="5">
         <v>133.38</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>12.36</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>0.43</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <v>5.83</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
-        <v>202306</v>
-      </c>
-      <c r="B43" s="9">
+      <c r="A43" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="7">
         <v>133.78</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="7">
         <v>12.13</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="7">
         <v>0.3</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="8">
         <v>6.15</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
-        <v>202307</v>
-      </c>
-      <c r="B44" s="6">
+      <c r="A44" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="5">
         <v>134.44999999999999</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>11.78</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>0.5</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <v>6.68</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
-        <v>202308</v>
-      </c>
-      <c r="B45" s="9">
+      <c r="A45" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="7">
         <v>135.38999999999999</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="7">
         <v>11.43</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="7">
         <v>0.7</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="8">
         <v>7.43</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
-        <v>202309</v>
-      </c>
-      <c r="B46" s="6">
+      <c r="A46" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="5">
         <v>136.11000000000001</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>10.99</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>0.54</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <v>8.01</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
-        <v>202310</v>
-      </c>
-      <c r="B47" s="9">
+      <c r="A47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="7">
         <v>136.44999999999999</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="7">
         <v>10.48</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="7">
         <v>0.25</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="8">
         <v>8.27</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
-        <v>202311</v>
-      </c>
-      <c r="B48" s="6">
+      <c r="A48" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="5">
         <v>137.09</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>10.15</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>0.47</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <v>8.7799999999999994</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
-        <v>202312</v>
-      </c>
-      <c r="B49" s="9">
+      <c r="A49" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="7">
         <v>137.72</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="7">
         <v>9.2799999999999994</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="7">
         <v>0.45</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="8">
         <v>9.2799999999999994</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="9">
         <v>202401</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <v>138.97999999999999</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>8.35</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>0.92</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <v>0.92</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
+      <c r="A51" s="10">
         <v>202402</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="7">
         <v>140.49</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="7">
         <v>7.74</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="7">
         <v>1.0900000000000001</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="8">
         <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="9">
         <v>202403</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>141.47999999999999</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>7.36</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>0.7</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <v>2.73</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8">
+      <c r="A53" s="10">
         <v>202404</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="7">
         <v>142.32</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="7">
         <v>7.16</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="7">
         <v>0.59</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="8">
         <v>3.34</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="9">
         <v>202405</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <v>142.91999999999999</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>7.16</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>0.43</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="6">
         <v>3.78</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="8">
+      <c r="A55" s="10">
         <v>202406</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="7">
         <v>143.38</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="7">
         <v>7.18</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="7">
         <v>0.32</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="8">
         <v>4.12</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+      <c r="A56" s="9">
         <v>202407</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="5">
         <v>143.66999999999999</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <v>6.86</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>0.2</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <v>4.32</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
+      <c r="A57" s="10">
         <v>202408</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="7">
         <v>143.66999999999999</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="7">
         <v>6.12</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="7">
         <v>0</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="8">
         <v>4.33</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>